--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,45 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
+      <c r="G7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I7" s="2">
+        <v>44012</v>
       </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
@@ -710,37 +711,43 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>3</v>
+      <c r="D8" s="3">
+        <v>26900</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
+        <v>55600</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -768,8 +775,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +807,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,28 +823,29 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+      <c r="D12" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>158100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>318900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>51500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>52300</v>
+      </c>
+      <c r="I12" s="3">
+        <v>75600</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -839,8 +853,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +885,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,8 +917,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -926,8 +949,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,28 +962,29 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7200</v>
+        <v>255900</v>
       </c>
       <c r="E17" s="3">
-        <v>800</v>
+        <v>184000</v>
       </c>
       <c r="F17" s="3">
-        <v>200</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>373200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>66600</v>
+      </c>
+      <c r="H17" s="3">
+        <v>61200</v>
+      </c>
+      <c r="I17" s="3">
+        <v>90300</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -965,22 +992,25 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-229000</v>
       </c>
       <c r="E18" s="3">
-        <v>-800</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-128400</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-66600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -994,8 +1024,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,22 +1040,23 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-24500</v>
       </c>
       <c r="E20" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+        <v>-4900</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
+        <v>100</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1036,16 +1070,19 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-252200</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-128400</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1065,8 +1102,11 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,28 +1134,31 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-400</v>
+        <v>-253500</v>
       </c>
       <c r="E23" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-373100</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-87100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1123,19 +1166,22 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>-2600</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1146,14 +1192,17 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
+      <c r="J24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,28 +1230,31 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-400</v>
+        <v>-251700</v>
       </c>
       <c r="E26" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-370400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-87100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1210,28 +1262,31 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-400</v>
+        <v>-251700</v>
       </c>
       <c r="E27" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-370400</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-87100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1239,8 +1294,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1326,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1358,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1390,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,22 +1422,25 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>24500</v>
       </c>
       <c r="E32" s="3">
-        <v>2800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>4900</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-100</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1384,28 +1454,31 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-400</v>
+        <v>-251700</v>
       </c>
       <c r="E33" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-370400</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-87100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1413,8 +1486,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,28 +1518,31 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-400</v>
+        <v>-251700</v>
       </c>
       <c r="E35" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-370400</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-87100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1471,33 +1550,36 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
+      <c r="G38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I38" s="2">
+        <v>44012</v>
       </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
@@ -1505,8 +1587,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1603,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,19 +1617,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>300</v>
+        <v>1610100</v>
       </c>
       <c r="E41" s="3">
-        <v>500</v>
+        <v>630400</v>
       </c>
       <c r="F41" s="3">
-        <v>800</v>
+        <v>784800</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1560,8 +1647,11 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1589,37 +1679,43 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>32500</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+        <v>5600</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,19 +1743,22 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>1100</v>
+        <v>34800</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>28600</v>
       </c>
       <c r="F45" s="3">
-        <v>1500</v>
+        <v>23300</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1676,19 +1775,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1400</v>
+        <v>1677400</v>
       </c>
       <c r="E46" s="3">
-        <v>1800</v>
+        <v>664500</v>
       </c>
       <c r="F46" s="3">
-        <v>2300</v>
+        <v>808200</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1705,95 +1807,107 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>977600</v>
+        <v>0</v>
       </c>
       <c r="E47" s="3">
-        <v>977500</v>
+        <v>0</v>
       </c>
       <c r="F47" s="3">
-        <v>977500</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
       </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>244800</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>243900</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
-        <v>0</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
-      </c>
-      <c r="J48" s="3">
-        <v>0</v>
+        <v>226700</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>1731000</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>1728400</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
-        <v>0</v>
-      </c>
-      <c r="H49" s="3">
-        <v>0</v>
-      </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>1728400</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1935,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,37 +1967,43 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>36900</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>33600</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>33100</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,19 +2031,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>978900</v>
+        <v>3690100</v>
       </c>
       <c r="E54" s="3">
-        <v>979400</v>
+        <v>2670500</v>
       </c>
       <c r="F54" s="3">
-        <v>979800</v>
+        <v>2796300</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1937,8 +2063,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2079,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,19 +2093,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>7900</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="F57" s="3">
-        <v>0</v>
+        <v>6500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1992,48 +2123,54 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58" s="3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5700</v>
+        <v>82800</v>
       </c>
       <c r="E59" s="3">
-        <v>300</v>
+        <v>72100</v>
       </c>
       <c r="F59" s="3">
-        <v>400</v>
+        <v>65800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2050,19 +2187,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>7600</v>
+        <v>90700</v>
       </c>
       <c r="E60" s="3">
-        <v>800</v>
+        <v>75500</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>72400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2079,8 +2219,11 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2108,19 +2251,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>66400</v>
+        <v>257700</v>
       </c>
       <c r="E62" s="3">
-        <v>73100</v>
+        <v>143100</v>
       </c>
       <c r="F62" s="3">
-        <v>70300</v>
+        <v>181400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2137,8 +2283,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2315,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2347,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,19 +2379,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>74000</v>
+        <v>348400</v>
       </c>
       <c r="E66" s="3">
-        <v>74000</v>
+        <v>218600</v>
       </c>
       <c r="F66" s="3">
-        <v>70800</v>
+        <v>253700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2253,8 +2411,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2427,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2457,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2489,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2333,10 +2501,10 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="G70" s="3">
         <v>0</v>
@@ -2353,8 +2521,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,19 +2553,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-72500</v>
+        <v>-1091200</v>
       </c>
       <c r="E72" s="3">
-        <v>-5800</v>
+        <v>-839500</v>
       </c>
       <c r="F72" s="3">
-        <v>-2200</v>
+        <v>-706200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2411,8 +2585,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2617,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2649,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,19 +2681,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>905000</v>
+        <v>3341700</v>
       </c>
       <c r="E76" s="3">
-        <v>905400</v>
+        <v>290700</v>
       </c>
       <c r="F76" s="3">
-        <v>909000</v>
+        <v>381500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2527,8 +2713,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,33 +2745,36 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
-        <v>44286</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
+      <c r="G80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="H80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="I80" s="2">
+        <v>44012</v>
       </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
@@ -2590,28 +2782,31 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-400</v>
+        <v>-251700</v>
       </c>
       <c r="E81" s="3">
-        <v>-3600</v>
+        <v>-133300</v>
       </c>
       <c r="F81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-370400</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-66500</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-60800</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-87100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -2619,8 +2814,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,37 +2830,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>1400</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>9300</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2892,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2924,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2956,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2988,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,19 +3020,22 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-200</v>
+        <v>-142400</v>
       </c>
       <c r="E89" s="3">
-        <v>-200</v>
+        <v>-137900</v>
       </c>
       <c r="F89" s="3">
-        <v>-1600</v>
+        <v>-283000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2835,8 +3052,11 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,37 +3068,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-15900</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-13100</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3130,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,19 +3162,22 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-12400</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="F94" s="3">
-        <v>-977500</v>
+        <v>281300</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2964,8 +3194,11 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3210,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3240,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3272,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3304,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,19 +3336,22 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>1137300</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>2500</v>
       </c>
       <c r="F100" s="3">
-        <v>979900</v>
+        <v>400100</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -3122,8 +3368,11 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,19 +3400,22 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-200</v>
+        <v>982400</v>
       </c>
       <c r="E102" s="3">
-        <v>-300</v>
+        <v>-154400</v>
       </c>
       <c r="F102" s="3">
-        <v>800</v>
+        <v>398500</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3178,6 +3430,9 @@
         <v>3</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,103 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>20700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>42000</v>
+      </c>
+      <c r="F8" s="3">
         <v>26900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>55600</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3">
+        <v>0</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,8 +792,14 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -810,8 +830,14 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -824,40 +850,48 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>183800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>154100</v>
+      </c>
+      <c r="F12" s="3">
         <v>220200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>158100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>318900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>51500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>52300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>75600</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,31 +922,37 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1000100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -920,8 +960,14 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -952,8 +998,14 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -963,61 +1015,69 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1217300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>185100</v>
+      </c>
+      <c r="F17" s="3">
         <v>255900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>184000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>373200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>66600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>61200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>90300</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-1196600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-143100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-229000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-128400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
         <v>-66600</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1027,8 +1087,14 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1041,29 +1107,31 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>66300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-24500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-4900</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
         <v>100</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,23 +1141,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1148600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-252200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-128400</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1105,8 +1179,14 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1137,72 +1217,90 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-253500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-133300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-373100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-66500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-60800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-87100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>-1900</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-2600</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1233,72 +1331,90 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-251700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-133300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-370400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-66500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-60800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-87100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-251700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-133300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-370400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-66500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-60800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-87100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1329,8 +1445,14 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1361,8 +1483,14 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1393,8 +1521,14 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1425,29 +1559,35 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-42500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-66300</v>
+      </c>
+      <c r="F32" s="3">
         <v>24500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>4900</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I32" s="3">
         <v>-100</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1457,40 +1597,52 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-251700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-133300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-370400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-66500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-60800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-87100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1521,77 +1673,95 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-251700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-133300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-370400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-66500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-60800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-87100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1604,8 +1774,10 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1618,26 +1790,28 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>549400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>504300</v>
+      </c>
+      <c r="F41" s="3">
         <v>1610100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>630400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>784800</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1650,31 +1824,37 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
+        <v>829400</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>964400</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -1682,23 +1862,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <v>27000</v>
+      </c>
+      <c r="F43" s="3">
         <v>32500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>5600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1708,14 +1894,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
-      </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1746,26 +1938,32 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E45" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F45" s="3">
         <v>34800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>28600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>23300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1778,26 +1976,32 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1398300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1518900</v>
+      </c>
+      <c r="F46" s="3">
         <v>1677400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>664500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>808200</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1810,8 +2014,14 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1836,78 +2046,96 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>235100</v>
+      </c>
+      <c r="E48" s="3">
+        <v>246600</v>
+      </c>
+      <c r="F48" s="3">
         <v>244800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>243900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>226700</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>731700</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1731900</v>
+      </c>
+      <c r="F49" s="3">
         <v>1731000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>1728400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>1728400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1938,8 +2166,14 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1970,40 +2204,52 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E52" s="3">
+        <v>36600</v>
+      </c>
+      <c r="F52" s="3">
         <v>36900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>33600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>33100</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2034,26 +2280,32 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2401400</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3534000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3690100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2670500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>2796300</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2066,8 +2318,14 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2080,8 +2338,10 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2094,26 +2354,28 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E57" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F57" s="3">
         <v>7900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>3400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>6500</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2126,8 +2388,14 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2152,32 +2420,38 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>63700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>44700</v>
+      </c>
+      <c r="F59" s="3">
         <v>82800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>72100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>65800</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2190,26 +2464,32 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>66500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F60" s="3">
         <v>90700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>75500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>72400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2222,8 +2502,14 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2254,26 +2540,32 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>145000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>190500</v>
+      </c>
+      <c r="F62" s="3">
         <v>257700</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>143100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>181400</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,8 +2578,14 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2318,8 +2616,14 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2350,8 +2654,14 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2382,26 +2692,32 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>211500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>239500</v>
+      </c>
+      <c r="F66" s="3">
         <v>348400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>218600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>253700</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2414,8 +2730,14 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2428,8 +2750,10 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2460,8 +2784,14 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2492,8 +2822,14 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2501,17 +2837,17 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
+        <v>0</v>
+      </c>
+      <c r="F70" s="3">
+        <v>0</v>
+      </c>
+      <c r="G70" s="3">
         <v>2161100</v>
       </c>
-      <c r="F70" s="3">
+      <c r="H70" s="3">
         <v>2161100</v>
       </c>
-      <c r="G70" s="3">
-        <v>0</v>
-      </c>
-      <c r="H70" s="3">
-        <v>0</v>
-      </c>
       <c r="I70" s="3">
         <v>0</v>
       </c>
@@ -2524,8 +2860,14 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2556,26 +2898,32 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2322200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1168000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-839500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-706200</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2588,8 +2936,14 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2620,8 +2974,14 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2652,8 +3012,14 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2684,26 +3050,32 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2190000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3294500</v>
+      </c>
+      <c r="F76" s="3">
         <v>3341700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>290700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>381500</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2716,8 +3088,14 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2748,77 +3126,95 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1154200</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-76800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-251700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-133300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-370400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-66500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-60800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-87100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2831,40 +3227,48 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>5000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9300</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2895,8 +3299,14 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2927,8 +3337,14 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2959,8 +3375,14 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2991,8 +3413,14 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3023,26 +3451,32 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-89600</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="F89" s="3">
         <v>-142400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-137900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-283000</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3055,8 +3489,14 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3069,40 +3509,48 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-15900</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-19000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-13100</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3133,8 +3581,14 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3165,26 +3619,32 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>129200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-971600</v>
+      </c>
+      <c r="F94" s="3">
         <v>-12400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-19000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>281300</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3197,8 +3657,14 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3211,8 +3677,10 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3243,8 +3711,14 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3275,8 +3749,14 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3307,8 +3787,14 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3339,26 +3825,32 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E100" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F100" s="3">
         <v>1137300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>400100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3371,8 +3863,14 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3403,26 +3901,32 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>45100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-1105600</v>
+      </c>
+      <c r="F102" s="3">
         <v>982400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-154400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>398500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3433,6 +3937,12 @@
         <v>3</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,92 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E8" s="3">
         <v>20700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>42000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>26900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>55600</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
+      <c r="I8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
@@ -754,14 +758,17 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -798,8 +805,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -836,8 +846,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,46 +865,50 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>170500</v>
+      </c>
+      <c r="E12" s="3">
         <v>183800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>154100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>220200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>158100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>318900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>51500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>52300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>75600</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,17 +945,20 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>1000100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -954,8 +974,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -966,8 +986,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1004,8 +1027,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1017,70 +1043,74 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>203000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1217300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>185100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>255900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>184000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>373200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>66600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>61200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>90300</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1196600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-143100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-229000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-128400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="I18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3">
         <v>-66600</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,8 +1123,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1109,32 +1142,33 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>42500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>66300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-4900</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="I20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1147,26 +1181,29 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-192800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-1148600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-71000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-252200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-128400</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1222,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1223,46 +1263,52 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-76800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-253500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-133300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-373100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-66500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-60800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-87100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1273,34 +1319,37 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>-1900</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-2600</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1337,84 +1386,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-76800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-251700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-133300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-370400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-66500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-60800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-87100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-76800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-251700</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-133300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-370400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-66500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-60800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-87100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1451,8 +1509,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1489,8 +1550,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1527,8 +1591,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1565,32 +1632,35 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-42500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-66300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>4900</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="I32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1603,46 +1673,52 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-76800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-251700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-133300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-370400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-66500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-60800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-87100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1679,89 +1755,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-76800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-251700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-133300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-370400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-66500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-60800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-87100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1776,8 +1861,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1792,29 +1878,30 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>486600</v>
+      </c>
+      <c r="E41" s="3">
         <v>549400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>504300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1610100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>630400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>784800</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1830,20 +1917,23 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>750700</v>
+      </c>
+      <c r="E42" s="3">
         <v>829400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>964400</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1856,8 +1946,8 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -1868,8 +1958,11 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1877,17 +1970,17 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
         <v>27000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>32500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>5600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1900,14 +1993,17 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1944,29 +2040,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14500</v>
+      </c>
+      <c r="E45" s="3">
         <v>19500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23100</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>28600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23300</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1982,29 +2081,32 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1251800</v>
+      </c>
+      <c r="E46" s="3">
         <v>1398300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1518900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1677400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>664500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>808200</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2020,8 +2122,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2052,35 +2157,38 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>234100</v>
+      </c>
+      <c r="E48" s="3">
         <v>235100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>246600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>244800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>243900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>226700</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2090,34 +2198,37 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3">
-        <v>0</v>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>731600</v>
+      </c>
+      <c r="E49" s="3">
         <v>731700</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>1731900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1731000</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1728400</v>
       </c>
       <c r="H49" s="3">
         <v>1728400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
+      <c r="I49" s="3">
+        <v>1728400</v>
       </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
@@ -2128,14 +2239,17 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2172,8 +2286,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2210,29 +2327,32 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36700</v>
+      </c>
+      <c r="E52" s="3">
         <v>36400</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>33600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33100</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2242,14 +2362,17 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2286,29 +2409,32 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2254200</v>
+      </c>
+      <c r="E54" s="3">
         <v>2401400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>3534000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3690100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2670500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2796300</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2324,8 +2450,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2340,8 +2469,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2356,29 +2486,30 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>4300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>7900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>3400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>6500</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2394,8 +2525,11 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2426,35 +2560,38 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
+      <c r="M58" s="3">
+        <v>0</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>72800</v>
+      </c>
+      <c r="E59" s="3">
         <v>63700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>44700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>82800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>65800</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2470,29 +2607,32 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>75700</v>
+      </c>
+      <c r="E60" s="3">
         <v>66500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>49000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>90700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>72400</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2508,8 +2648,11 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2546,29 +2689,32 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>146100</v>
+      </c>
+      <c r="E62" s="3">
         <v>145000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>190500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>257700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>143100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>181400</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2584,8 +2730,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2622,8 +2771,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2660,8 +2812,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2698,29 +2853,32 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>221800</v>
+      </c>
+      <c r="E66" s="3">
         <v>211500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>239500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>348400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>218600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>253700</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2736,8 +2894,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2752,8 +2913,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2790,8 +2952,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2993,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2843,13 +3011,13 @@
         <v>0</v>
       </c>
       <c r="G70" s="3">
-        <v>2161100</v>
+        <v>0</v>
       </c>
       <c r="H70" s="3">
         <v>2161100</v>
       </c>
       <c r="I70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="J70" s="3">
         <v>0</v>
@@ -2866,8 +3034,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2904,29 +3075,32 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2520400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2322200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1168000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-839500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-706200</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2942,8 +3116,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2980,8 +3157,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3018,8 +3198,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3056,29 +3239,32 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2032400</v>
+      </c>
+      <c r="E76" s="3">
         <v>2190000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>3294500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3341700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>290700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>381500</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3094,8 +3280,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3132,89 +3321,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-198200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1154200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-76800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-251700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-133300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-370400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-66500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-60800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-87100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3229,29 +3427,30 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9300</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3261,14 +3460,17 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3305,8 +3507,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3343,8 +3548,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3381,8 +3589,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3419,8 +3630,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3457,29 +3671,32 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-142400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-89600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-135800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-142400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-137900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-283000</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3495,8 +3712,11 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3511,29 +3731,30 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-15900</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-19000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-13100</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3543,14 +3764,17 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3587,8 +3811,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3625,29 +3852,32 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>76600</v>
+      </c>
+      <c r="E94" s="3">
         <v>129200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-971600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-12400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-19000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>281300</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3663,8 +3893,11 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3679,8 +3912,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3717,8 +3951,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3755,8 +3992,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3793,8 +4033,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3831,29 +4074,32 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1137300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>2500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>400100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3869,8 +4115,11 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3907,29 +4156,32 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-62800</v>
+      </c>
+      <c r="E102" s="3">
         <v>45100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-1105600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>982400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-154400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>398500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3943,6 +4195,9 @@
         <v>3</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,95 +665,98 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E8" s="3">
         <v>2900</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>20700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>26900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>55600</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
+      <c r="J8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
@@ -761,14 +764,17 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3">
-        <v>0</v>
+      <c r="N8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -808,8 +814,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,8 +858,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -866,49 +878,53 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>168600</v>
+      </c>
+      <c r="E12" s="3">
         <v>170500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>183800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>154100</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>220200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>158100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>318900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>51500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>52300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>75600</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -948,20 +964,23 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>113900</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>1000100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,8 +996,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -989,8 +1008,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1030,8 +1052,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1044,76 +1069,80 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>314500</v>
+      </c>
+      <c r="E17" s="3">
         <v>203000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1217300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>185100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>255900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>184000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>373200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>66600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>61200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>90300</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-312100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-1196600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-143100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-229000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-128400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="J18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K18" s="3">
         <v>-66600</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1126,8 +1155,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1143,35 +1175,36 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E20" s="3">
         <v>1900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>42500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>66300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J20" s="3">
+      <c r="J20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1184,29 +1217,32 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-288500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-192800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-1148600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-71000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-252200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-128400</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1225,8 +1261,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1266,49 +1305,55 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-198200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-76800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-253500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-133300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-373100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-66500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-60800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-87100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1322,34 +1367,37 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>-1900</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-2600</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1389,90 +1437,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-198200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-76800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-251700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-133300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-370400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-66500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-60800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-87100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-198200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-76800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-251700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-133300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-370400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-66500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-60800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-87100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1512,8 +1569,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1553,8 +1613,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1594,8 +1657,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1635,35 +1701,38 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-42500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-66300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J32" s="3">
+      <c r="J32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1676,49 +1745,55 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-198200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-76800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-251700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-133300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-370400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-66500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-60800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-87100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1758,95 +1833,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-198200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-76800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-251700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-133300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-370400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-66500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-60800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-87100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1862,8 +1946,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1879,32 +1964,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>262000</v>
+      </c>
+      <c r="E41" s="3">
         <v>486600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>549400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>504300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1610100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>630400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>784800</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1920,23 +2006,26 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>839000</v>
+      </c>
+      <c r="E42" s="3">
         <v>750700</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>829400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>964400</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,8 +2038,8 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -1961,29 +2050,32 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
       <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
         <v>27000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>32500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>5600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1996,14 +2088,17 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2043,32 +2138,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>19500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>28600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23300</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2084,32 +2182,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1118000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1251800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1398300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1518900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1677400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>664500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>808200</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2125,8 +2226,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2160,38 +2264,41 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>0</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E48" s="3">
         <v>234100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>235100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>246600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>244800</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>243900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>226700</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2201,37 +2308,40 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
-        <v>0</v>
+      <c r="N48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E49" s="3">
         <v>731600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>731700</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>1731900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1731000</v>
-      </c>
-      <c r="H49" s="3">
-        <v>1728400</v>
       </c>
       <c r="I49" s="3">
         <v>1728400</v>
       </c>
-      <c r="J49" s="3" t="s">
-        <v>3</v>
+      <c r="J49" s="3">
+        <v>1728400</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>3</v>
@@ -2242,14 +2352,17 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2289,8 +2402,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2330,32 +2446,35 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E52" s="3">
         <v>36700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36400</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>33600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33100</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,14 +2484,17 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2412,32 +2534,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2001000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2254200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2401400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3534000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3690100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2670500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2796300</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2453,8 +2578,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2470,8 +2598,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2487,32 +2616,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>3400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>6500</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2528,8 +2658,11 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2563,38 +2696,41 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E59" s="3">
         <v>72800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>63700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>82800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>72100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>65800</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,32 +2746,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E60" s="3">
         <v>75700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>66500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>49000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>90700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>75500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>72400</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2651,8 +2790,11 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2692,32 +2834,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E62" s="3">
         <v>146100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>145000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>190500</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>257700</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>143100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>181400</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,8 +2878,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2774,8 +2922,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2815,8 +2966,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2856,32 +3010,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E66" s="3">
         <v>221800</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>211500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>239500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>348400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>218600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>253700</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2897,8 +3054,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2914,8 +3074,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2955,8 +3116,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2996,8 +3160,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3014,13 +3181,13 @@
         <v>0</v>
       </c>
       <c r="H70" s="3">
-        <v>2161100</v>
+        <v>0</v>
       </c>
       <c r="I70" s="3">
         <v>2161100</v>
       </c>
       <c r="J70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -3037,8 +3204,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3078,32 +3248,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2814000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2520400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2322200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1168000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-839500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-706200</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3119,8 +3292,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3160,8 +3336,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3201,8 +3380,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3242,32 +3424,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1784000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2032400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2190000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>3294500</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3341700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>290700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>381500</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3283,8 +3468,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3324,95 +3512,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-293800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-198200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1154200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-76800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-251700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-133300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-370400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-66500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-60800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-87100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3428,32 +3625,33 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E83" s="3">
         <v>5400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9300</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3463,14 +3661,17 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3510,8 +3711,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3551,8 +3755,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3592,8 +3799,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3633,8 +3843,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3674,32 +3887,35 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-140200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-142400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-89600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-135800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-142400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-137900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-283000</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3715,8 +3931,11 @@
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3732,32 +3951,33 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-15900</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-19000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-13100</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3767,14 +3987,17 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3814,8 +4037,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3855,32 +4081,35 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-86200</v>
+      </c>
+      <c r="E94" s="3">
         <v>76600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>129200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-971600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-12400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-19000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>281300</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3896,8 +4125,11 @@
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3913,8 +4145,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3954,8 +4187,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3995,8 +4231,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4036,8 +4275,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4077,32 +4319,35 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>600</v>
+      </c>
+      <c r="E100" s="3">
         <v>3000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>5500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1800</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1137300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>400100</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4118,8 +4363,11 @@
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4159,32 +4407,35 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-225800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-62800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>45100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-1105600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>982400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-154400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>398500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,6 +4449,9 @@
         <v>3</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,101 +665,105 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3">
         <v>2400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>2900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>20700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>42000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>26900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>55600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
@@ -767,14 +771,17 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -817,8 +824,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -861,8 +871,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -879,52 +892,56 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>177000</v>
+      </c>
+      <c r="E12" s="3">
         <v>168600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>170500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>183800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>154100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>220200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>158100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>318900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>51500</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>52300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>75600</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -967,23 +984,26 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>113900</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>1000100</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -999,8 +1019,8 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1011,8 +1031,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1055,8 +1078,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1070,82 +1096,86 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>208000</v>
+      </c>
+      <c r="E17" s="3">
         <v>314500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>203000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1217300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>185100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>255900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>184000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>373200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>66600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>61200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>90300</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-312100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-200100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1196600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-143100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-229000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-128400</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
         <v>-66600</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1158,8 +1188,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1176,38 +1209,39 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>18300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1900</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>42500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>66300</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-24500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-4900</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K20" s="3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1220,32 +1254,35 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-288500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-192800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1148600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-71000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-252200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-128400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,8 +1301,11 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1308,52 +1348,58 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-293800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-198200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-76800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-253500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-133300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-373100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-66500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-60800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-87100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1370,34 +1416,37 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-1900</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-2600</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1440,96 +1489,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-293800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-198200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-76800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-251700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-133300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-370400</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-66500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-60800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-87100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-293800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-198200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-76800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-251700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-133300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-370400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-66500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-60800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-87100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1572,8 +1630,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1616,8 +1677,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1660,8 +1724,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1704,38 +1771,41 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>-18300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1900</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-42500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-66300</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>24500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>4900</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K32" s="3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1748,52 +1818,58 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-293800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-198200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-76800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-251700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-133300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-370400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-66500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-60800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-87100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1836,101 +1912,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-293800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-198200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-76800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-251700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-133300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-370400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-66500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-60800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-87100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1947,8 +2032,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1965,35 +2051,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>175000</v>
+      </c>
+      <c r="E41" s="3">
         <v>262000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>486600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>549400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>504300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>1610100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>630400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>784800</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2009,26 +2096,29 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>791000</v>
+      </c>
+      <c r="E42" s="3">
         <v>839000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>750700</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>829400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>964400</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2041,8 +2131,8 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2053,32 +2143,35 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
       </c>
       <c r="G43" s="3">
+        <v>0</v>
+      </c>
+      <c r="H43" s="3">
         <v>27000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>32500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>5600</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2091,14 +2184,17 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2141,35 +2237,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E45" s="3">
         <v>17000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>28600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>23300</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2185,35 +2284,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>980000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1118000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1251800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1398300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1518900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1677400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>664500</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>808200</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2229,8 +2331,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2267,41 +2372,44 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>3</v>
+      <c r="O47" s="3">
+        <v>0</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E48" s="3">
         <v>229000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>234100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>235100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>246600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>244800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>243900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>226700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2311,14 +2419,17 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3">
-        <v>0</v>
+      <c r="O48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2326,25 +2437,25 @@
         <v>618000</v>
       </c>
       <c r="E49" s="3">
+        <v>618000</v>
+      </c>
+      <c r="F49" s="3">
         <v>731600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>731700</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>1731900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1731000</v>
-      </c>
-      <c r="I49" s="3">
-        <v>1728400</v>
       </c>
       <c r="J49" s="3">
         <v>1728400</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
+      <c r="K49" s="3">
+        <v>1728400</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>3</v>
@@ -2355,14 +2466,17 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2405,8 +2519,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2449,35 +2566,38 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E52" s="3">
         <v>36000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36400</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36600</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>33600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2487,14 +2607,17 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2537,35 +2660,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1867000</v>
+      </c>
+      <c r="E54" s="3">
         <v>2001000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2254200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2401400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3534000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3690100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>2670500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2796300</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,8 +2707,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2599,8 +2728,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2617,35 +2747,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>4300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>7900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>6500</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2661,8 +2792,11 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2699,41 +2833,44 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
+      <c r="O58" s="3">
+        <v>0</v>
       </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E59" s="3">
         <v>83000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>72800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>63700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>82800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>72100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>65800</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2749,35 +2886,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E60" s="3">
         <v>83000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>75700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>66500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>49000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>90700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>75500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>72400</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2793,8 +2933,11 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2837,35 +2980,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>135000</v>
+      </c>
+      <c r="E62" s="3">
         <v>134000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>145000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>190500</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>257700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>143100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>181400</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2881,8 +3027,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2925,8 +3074,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2969,8 +3121,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3013,35 +3168,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E66" s="3">
         <v>217000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>221800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>211500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>239500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>348400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>218600</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>253700</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3057,8 +3215,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3075,8 +3236,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3119,8 +3281,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3163,8 +3328,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3184,13 +3352,13 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>2161100</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
         <v>2161100</v>
       </c>
       <c r="K70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="L70" s="3">
         <v>0</v>
@@ -3207,8 +3375,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3251,35 +3422,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3010000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2814000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2520400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2322200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1168000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-839500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-706200</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3295,8 +3469,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3339,8 +3516,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3383,8 +3563,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3427,35 +3610,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1629000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1784000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2032400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2190000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>3294500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3341700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>290700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>381500</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3657,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3515,101 +3704,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-196000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-293800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-198200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1154200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-76800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-251700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-133300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-370400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-66500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-60800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-87100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3626,35 +3824,36 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E83" s="3">
         <v>5300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5800</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9300</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3664,14 +3863,17 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3714,8 +3916,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3758,8 +3963,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3802,8 +4010,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3846,8 +4057,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3890,35 +4104,38 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-136000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-140200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-142400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-89600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-135800</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-142400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-137900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-283000</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3934,8 +4151,11 @@
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3952,35 +4172,36 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-5500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-15900</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-19000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-13100</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3990,14 +4211,17 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4040,8 +4264,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4084,35 +4311,38 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>54000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-86200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>76600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>129200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-971600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-12400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-19000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>281300</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4128,8 +4358,11 @@
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4146,8 +4379,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4190,8 +4424,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4234,8 +4471,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4278,8 +4518,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4322,35 +4565,38 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>3000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>5500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1800</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1137300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>400100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4366,8 +4612,11 @@
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4410,35 +4659,38 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-225800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-62800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>45100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1105600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>982400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-154400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>398500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4452,6 +4704,9 @@
         <v>3</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,80 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -742,31 +746,31 @@
         <v>3</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>2400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>20700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>42000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>26900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>55600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
@@ -774,14 +778,17 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
+      <c r="P8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -827,8 +834,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -874,8 +884,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -893,55 +906,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>187000</v>
+      </c>
+      <c r="E12" s="3">
         <v>177000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>168600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>170500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>183800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>154100</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>220200</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>158100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>318900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>51500</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>52300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>75600</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -987,26 +1004,29 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
         <v>113900</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>1000100</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1022,8 +1042,8 @@
       <c r="M14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1034,8 +1054,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,8 +1104,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1097,55 +1123,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E17" s="3">
         <v>208000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>314500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>203000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1217300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>185100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>255900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>184000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>373200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>66600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>61200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>90300</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1153,32 +1183,32 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-312100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-200100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1196600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-143100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-229000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-128400</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L18" s="3">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3">
         <v>-66600</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1191,8 +1221,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1210,8 +1243,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1219,32 +1253,32 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>12000</v>
+      </c>
+      <c r="F20" s="3">
         <v>18300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1900</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>42500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>66300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-24500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-4900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1257,8 +1291,11 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1266,26 +1303,26 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-191000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-288500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-192800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-1148600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-71000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-252200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-128400</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1304,8 +1341,11 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1351,60 +1391,66 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-196000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-293800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-198200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-76800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-253500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-133300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-373100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-66500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-60800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-87100</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1419,34 +1465,37 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-1900</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-2600</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
       <c r="M24" s="3">
         <v>0</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1492,102 +1541,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-196000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-293800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-198200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-76800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-251700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-133300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-370400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-66500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-60800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-87100</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-196000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-293800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-198200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-76800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-251700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-133300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-370400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-66500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-60800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-87100</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1633,8 +1691,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1680,8 +1741,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1727,8 +1791,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1774,8 +1841,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1783,32 +1853,32 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-18300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1900</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-42500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-66300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>24500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>4900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L32" s="3">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1821,55 +1891,61 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-196000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-293800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-198200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-76800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-251700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-133300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-370400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-66500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-60800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-87100</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1915,107 +1991,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-196000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-293800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-198200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-76800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-251700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-133300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-370400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-66500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-60800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-87100</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2033,8 +2118,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2052,38 +2138,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>165000</v>
+      </c>
+      <c r="E41" s="3">
         <v>175000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>262000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>486600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>549400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>504300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>1610100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>630400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>784800</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,29 +2186,32 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>620000</v>
+      </c>
+      <c r="E42" s="3">
         <v>791000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>839000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>750700</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>829400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>964400</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2134,8 +2224,8 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -2146,8 +2236,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,24 +2250,24 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
       </c>
       <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
         <v>27000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>32500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>5600</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2187,14 +2280,17 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2240,38 +2336,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E45" s="3">
         <v>14000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>34800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>28600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23300</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,38 +2386,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E46" s="3">
         <v>980000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1118000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1251800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1398300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1518900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1677400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>664500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>808200</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2334,8 +2436,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2375,14 +2480,17 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>3</v>
+      <c r="P47" s="3">
+        <v>0</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2390,29 +2498,29 @@
         <v>227000</v>
       </c>
       <c r="E48" s="3">
+        <v>227000</v>
+      </c>
+      <c r="F48" s="3">
         <v>229000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>234100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>235100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>246600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>244800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>243900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>226700</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2422,14 +2530,17 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P48" s="3">
-        <v>0</v>
+      <c r="P48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2440,25 +2551,25 @@
         <v>618000</v>
       </c>
       <c r="F49" s="3">
+        <v>618000</v>
+      </c>
+      <c r="G49" s="3">
         <v>731600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>731700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>1731900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1731000</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1728400</v>
       </c>
       <c r="K49" s="3">
         <v>1728400</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
+      <c r="L49" s="3">
+        <v>1728400</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>3</v>
@@ -2469,14 +2580,17 @@
       <c r="O49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2522,8 +2636,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2569,38 +2686,41 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E52" s="3">
         <v>42000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>36000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36400</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36600</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>33600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33100</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2610,14 +2730,17 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2663,38 +2786,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1679000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1867000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2001000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2254200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2401400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3534000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3690100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2670500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2796300</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2710,8 +2836,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2729,8 +2858,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2748,8 +2878,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2759,27 +2890,27 @@
       <c r="E57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F57" s="3">
+      <c r="F57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>4300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>7900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>6500</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2795,8 +2926,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2836,44 +2970,47 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E59" s="3">
         <v>103000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>83000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>72800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>63700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>44700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>82800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>72100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>65800</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2889,38 +3026,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E60" s="3">
         <v>103000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>75700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>66500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>49000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>90700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>75500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>72400</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2936,8 +3076,11 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2983,38 +3126,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>144000</v>
+      </c>
+      <c r="E62" s="3">
         <v>135000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>134000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>145000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>190500</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>257700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>143100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>181400</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3030,8 +3176,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3077,8 +3226,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3124,8 +3276,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3171,38 +3326,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E66" s="3">
         <v>238000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>217000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>221800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>211500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>239500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>348400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>218600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>253700</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3218,8 +3376,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3237,8 +3398,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3284,8 +3446,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3331,8 +3496,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3355,13 +3523,13 @@
         <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>2161100</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>2161100</v>
       </c>
       <c r="L70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="M70" s="3">
         <v>0</v>
@@ -3378,8 +3546,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3425,38 +3596,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3228000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3010000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2814000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2520400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2322200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-1168000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-839500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-706200</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3472,8 +3646,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3519,8 +3696,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3566,8 +3746,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3613,38 +3796,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1450000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1629000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1784000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2032400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2190000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>3294500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3341700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>290700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>381500</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3660,8 +3846,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3707,107 +3896,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-218000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-196000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-293800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-198200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1154200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-76800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-251700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-133300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-370400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-66500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-60800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-87100</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3825,8 +4023,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3834,29 +4033,29 @@
         <v>5000</v>
       </c>
       <c r="E83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="F83" s="3">
         <v>5300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5800</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>5000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9300</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3866,14 +4065,17 @@
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3919,8 +4121,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3966,8 +4171,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4013,8 +4221,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4060,8 +4271,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4107,38 +4321,41 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-182000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-136000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-140200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-142400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-89600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-135800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-142400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-137900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-283000</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4154,8 +4371,11 @@
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4173,38 +4393,39 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-2000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-3200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-2500</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-3800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-5500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-15900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-19000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-13100</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4214,14 +4435,17 @@
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4267,8 +4491,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4314,38 +4541,41 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>174000</v>
+      </c>
+      <c r="E94" s="3">
         <v>54000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-86200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>76600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>129200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-971600</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-12400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-19000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>281300</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4361,8 +4591,11 @@
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4380,8 +4613,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4427,8 +4661,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4474,8 +4711,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4521,8 +4761,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4568,38 +4811,41 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-5000</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>3000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>1800</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1137300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>400100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4615,8 +4861,11 @@
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4662,38 +4911,41 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-82000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-225800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-62800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>45100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1105600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>982400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-154400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>398500</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4707,6 +4959,9 @@
         <v>3</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AUR_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="92">
   <si>
     <t>AUR</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,80 +665,84 @@
     <col min="1" max="1" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -749,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>2400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>2900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>20700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>42000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>26900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>55600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>3</v>
@@ -781,14 +785,17 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q8" s="3">
-        <v>0</v>
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -837,8 +844,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -887,8 +897,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -907,58 +920,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>182000</v>
+      </c>
+      <c r="E12" s="3">
         <v>187000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>177000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>168600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>170500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>183800</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>154100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>220200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>158100</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>318900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>51500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>52300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>75600</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1007,29 +1024,32 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3">
         <v>113900</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>1000100</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
@@ -1045,8 +1065,8 @@
       <c r="N14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1057,8 +1077,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1107,8 +1130,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1124,58 +1150,62 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>212000</v>
+      </c>
+      <c r="E17" s="3">
         <v>217000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>208000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>314500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>203000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1217300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>185100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>255900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>184000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>373200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>66600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>61200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>90300</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1183,35 +1213,35 @@
         <v>3</v>
       </c>
       <c r="E18" s="3">
+        <v>-217000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-208000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-312100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-1196600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-143100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-229000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-128400</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3">
         <v>-66600</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1224,8 +1254,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1244,8 +1277,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1253,35 +1287,35 @@
         <v>3</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>12000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>18300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>42500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>66300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-4900</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1294,8 +1328,11 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1303,29 +1340,29 @@
         <v>3</v>
       </c>
       <c r="E21" s="3">
+        <v>-213000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-191000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-288500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-192800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-1148600</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-71000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-252200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-128400</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1344,8 +1381,11 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,66 +1434,72 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-218000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-196000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-293800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-198200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-76800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-253500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-133300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-373100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-66500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-60800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-87100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
+      <c r="E24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F24" s="3">
         <v>0</v>
@@ -1468,34 +1514,37 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-1900</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-2600</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1544,108 +1593,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-218000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-196000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-293800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-198200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-76800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-251700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-133300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-370400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-66500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-60800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-87100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-218000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-196000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-293800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-198200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-76800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-251700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-133300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-370400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-66500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-60800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-87100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1694,8 +1752,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1744,8 +1805,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1794,8 +1858,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1844,8 +1911,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1853,35 +1923,35 @@
         <v>3</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-12000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-18300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-42500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-66300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>4900</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1894,58 +1964,64 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-218000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-196000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-293800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-198200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-76800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-251700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-133300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-370400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-66500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-60800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-87100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1994,113 +2070,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-218000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-196000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-293800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-198200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-76800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-251700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-133300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-370400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-66500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-60800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-87100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2204,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2139,41 +2225,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>953000</v>
+      </c>
+      <c r="E41" s="3">
         <v>165000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>175000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>262000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>486600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>549400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>504300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1610100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>630400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>784800</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,32 +2276,35 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>518000</v>
+      </c>
+      <c r="E42" s="3">
         <v>620000</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>791000</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>839000</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>750700</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>829400</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>964400</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2227,8 +2317,8 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2239,8 +2329,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,24 +2346,24 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
       <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
         <v>27000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>32500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>5600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2283,14 +2376,17 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q43" s="3">
-        <v>0</v>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2339,8 +2435,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2348,32 +2447,32 @@
         <v>11000</v>
       </c>
       <c r="E45" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>14500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>19500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>23100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>34800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>28600</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23300</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2389,41 +2488,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1482000</v>
+      </c>
+      <c r="E46" s="3">
         <v>796000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>980000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1118000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1251800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1398300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1518900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1677400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>664500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>808200</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,8 +2541,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2483,47 +2588,50 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>3</v>
+      <c r="Q47" s="3">
+        <v>0</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>227000</v>
+        <v>216000</v>
       </c>
       <c r="E48" s="3">
         <v>227000</v>
       </c>
       <c r="F48" s="3">
+        <v>227000</v>
+      </c>
+      <c r="G48" s="3">
         <v>229000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>234100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>235100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>246600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>244800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>243900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>226700</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2533,19 +2641,22 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q48" s="3">
-        <v>0</v>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>618000</v>
+        <v>617000</v>
       </c>
       <c r="E49" s="3">
         <v>618000</v>
@@ -2554,25 +2665,25 @@
         <v>618000</v>
       </c>
       <c r="G49" s="3">
+        <v>618000</v>
+      </c>
+      <c r="H49" s="3">
         <v>731600</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>731700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>1731900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>1731000</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1728400</v>
       </c>
       <c r="L49" s="3">
         <v>1728400</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>3</v>
+      <c r="M49" s="3">
+        <v>1728400</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>3</v>
@@ -2583,14 +2694,17 @@
       <c r="P49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2639,8 +2753,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2689,41 +2806,44 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E52" s="3">
         <v>38000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>42000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>36000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>36700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>36400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>36600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>36900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>33600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>33100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2733,14 +2853,17 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2789,41 +2912,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2354000</v>
+      </c>
+      <c r="E54" s="3">
         <v>1679000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1867000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2001000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2254200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>2401400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>3534000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3690100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>2670500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>2796300</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2859,8 +2988,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2879,8 +3009,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2893,27 +3024,27 @@
       <c r="F57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="3">
+      <c r="G57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>4300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>7900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>3400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>6500</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2929,8 +3060,11 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2973,47 +3107,50 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>3</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E59" s="3">
         <v>85000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>103000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>83000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>72800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>63700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>44700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>82800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>72100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>65800</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,41 +3166,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E60" s="3">
         <v>85000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>103000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>83000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>75700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>66500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>49000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>90700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>75500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>72400</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3079,8 +3219,11 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3129,41 +3272,44 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E62" s="3">
         <v>144000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>135000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>134000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>146100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>145000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>190500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>257700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>143100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>181400</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,8 +3325,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3229,8 +3378,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3279,8 +3431,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3329,41 +3484,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>220000</v>
+      </c>
+      <c r="E66" s="3">
         <v>229000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>238000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>217000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>221800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>211500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>239500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>348400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>218600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>253700</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3379,8 +3537,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3399,8 +3560,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3449,8 +3611,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3499,8 +3664,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3526,13 +3694,13 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>2161100</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>2161100</v>
       </c>
       <c r="M70" s="3">
-        <v>0</v>
+        <v>2161100</v>
       </c>
       <c r="N70" s="3">
         <v>0</v>
@@ -3549,8 +3717,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3599,41 +3770,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3418000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3228000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3010000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2814000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2520400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2322200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-1168000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1091200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-839500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-706200</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3649,8 +3823,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3699,8 +3876,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3749,8 +3929,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3799,41 +3982,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2134000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1450000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1629000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1784000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2032400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2190000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>3294500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3341700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>290700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>381500</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3849,8 +4035,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3899,113 +4088,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-190000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-218000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-196000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-293800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-198200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1154200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-76800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-251700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-133300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-370400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-66500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-60800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-87100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4024,8 +4222,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4036,29 +4235,29 @@
         <v>5000</v>
       </c>
       <c r="F83" s="3">
+        <v>5000</v>
+      </c>
+      <c r="G83" s="3">
         <v>5300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>5400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>5600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>5800</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>5000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9300</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4068,14 +4267,17 @@
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4124,8 +4326,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4174,8 +4379,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4224,8 +4432,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4274,8 +4485,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4324,41 +4538,44 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-147000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-182000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-136000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-140200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-142400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-89600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-135800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-142400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-137900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-283000</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4374,8 +4591,11 @@
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4394,41 +4614,42 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-4000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-2000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-3200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-2500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-3800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-5500</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-15900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-19000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-13100</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4438,14 +4659,17 @@
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4494,8 +4718,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4544,41 +4771,44 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E94" s="3">
         <v>174000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>54000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-86200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>76600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>129200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-971600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-12400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-19000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>281300</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4594,8 +4824,11 @@
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4614,8 +4847,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4664,8 +4898,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4714,8 +4951,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4764,8 +5004,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4814,41 +5057,44 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>832000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>3000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>1800</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1137300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>400100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4864,8 +5110,11 @@
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4914,41 +5163,44 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>789000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-82000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-225800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-62800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>45100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-1105600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>982400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-154400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>398500</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4962,6 +5214,9 @@
         <v>3</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
